--- a/2_metal_balance/data/2-4数据格式(综合厂) new.xlsx
+++ b/2_metal_balance/data/2-4数据格式(综合厂) new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17910" windowHeight="8370"/>
+    <workbookView windowWidth="17910" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>物料分类</t>
   </si>
@@ -155,6 +155,9 @@
     <t>std</t>
   </si>
   <si>
+    <t>直观估计或卷尺（大规模）</t>
+  </si>
+  <si>
     <t>称重</t>
   </si>
   <si>
@@ -164,7 +167,10 @@
     <t>计数（块、袋）</t>
   </si>
   <si>
-    <t>其他</t>
+    <t>干量无误差</t>
+  </si>
+  <si>
+    <t>未知</t>
   </si>
   <si>
     <t>Cu元素含量误差(无)</t>
@@ -174,6 +180,15 @@
   </si>
   <si>
     <t>Au元素含量误差(无)</t>
+  </si>
+  <si>
+    <t>Cu元素含量有误差</t>
+  </si>
+  <si>
+    <t>Ag元素含量有误差</t>
+  </si>
+  <si>
+    <t>Au元素含量有误差</t>
   </si>
 </sst>
 </file>
@@ -181,15 +196,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.000000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +213,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -257,11 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -271,6 +288,34 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +329,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -294,28 +361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,9 +375,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,25 +419,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,42 +432,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -426,13 +448,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,169 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,17 +692,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,22 +750,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,25 +767,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,174 +785,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -939,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -948,13 +973,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,67 +988,67 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1032,26 +1057,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 21" xfId="1"/>
+    <cellStyle name="常规 10 10 2 2 2 3" xfId="2"/>
     <cellStyle name="常规 19" xfId="3"/>
-    <cellStyle name="常规 10 10 2 2 2 3" xfId="4"/>
-    <cellStyle name="常规 21" xfId="5"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="Normal" xfId="5"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="6" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="7" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
@@ -1398,7 +1423,7 @@
   <sheetPr/>
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1408,728 +1433,728 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="2" width="10.3636363636364" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.6363636363636" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.3636363636364" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.6363636363636" style="6" customWidth="1"/>
-    <col min="6" max="7" width="21.9090909090909" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.1818181818182" style="6" customWidth="1"/>
-    <col min="9" max="9" width="26.3636363636364" style="6" customWidth="1"/>
-    <col min="10" max="11" width="28.6363636363636" style="6" customWidth="1"/>
-    <col min="12" max="12" width="17.3636363636364" style="6" customWidth="1"/>
-    <col min="13" max="13" width="26.3636363636364" style="8" customWidth="1"/>
-    <col min="14" max="14" width="19.6363636363636" style="6" customWidth="1"/>
-    <col min="15" max="16" width="21.9090909090909" style="6" customWidth="1"/>
-    <col min="17" max="17" width="28.6363636363636" style="6" customWidth="1"/>
-    <col min="18" max="19" width="30.9090909090909" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="6"/>
+    <col min="1" max="2" width="10.3636363636364" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.6363636363636" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.3636363636364" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.6363636363636" style="7" customWidth="1"/>
+    <col min="6" max="7" width="21.9090909090909" style="7" customWidth="1"/>
+    <col min="8" max="8" width="24.1818181818182" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.3636363636364" style="7" customWidth="1"/>
+    <col min="10" max="11" width="28.6363636363636" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" style="7" customWidth="1"/>
+    <col min="13" max="13" width="26.3636363636364" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.6363636363636" style="7" customWidth="1"/>
+    <col min="15" max="16" width="21.9090909090909" style="7" customWidth="1"/>
+    <col min="17" max="17" width="28.6363636363636" style="7" customWidth="1"/>
+    <col min="18" max="19" width="30.9090909090909" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:26">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:26">
-      <c r="A2" s="11" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:26">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>10001</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="14">
         <v>11500</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="20">
         <v>2.1</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="27">
         <v>3.53</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="27">
         <v>0.01</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="28">
         <v>61540.36</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="30">
         <v>1.769999</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="31">
         <v>1.980001</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="30">
         <v>0.040006</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="14">
         <v>13986.2</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="20">
         <v>1.770002</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="27">
         <v>1.980023</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="27">
         <v>0.039968</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:26">
-      <c r="A3" s="11" t="s">
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:26">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>10043</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>765.14</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="20">
         <v>23.289986</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="27">
         <v>31.859529</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="27">
         <v>0.199963</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="29">
         <v>0</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17">
         <v>765.14</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="17">
         <v>23.289986</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="17">
         <v>31.859529</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="17">
         <v>0.199963</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:26">
-      <c r="A4" s="11" t="s">
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:26">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>10045</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>765.14</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="20">
         <v>0.310009</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="27">
         <v>0.799854</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="27">
         <v>0</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="29">
         <v>0</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17">
         <v>765.14</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="17">
         <v>0.310009</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="17">
         <v>0.799854</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="11" t="s">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:26">
-      <c r="A5" s="11" t="s">
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:26">
+      <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>10047</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>765.14</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="20">
         <v>0.270016</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="27">
         <v>1.300416</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="27">
         <v>0</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="29">
         <v>0</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="16">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="17">
         <v>765.14</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="17">
         <v>0.270016</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="17">
         <v>1.300416</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="11" t="s">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:26">
-      <c r="A6" s="11" t="s">
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:26">
+      <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>10063</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>220.23</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="20">
         <v>1.890297</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="27">
         <v>3.52813</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="27">
         <v>0.009081</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="29">
         <v>0</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="16">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="17">
         <v>220.23</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="17">
         <v>1.890297</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="17">
         <v>1.979748</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="17">
         <v>0.040866</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:19">
-      <c r="A7" s="11" t="s">
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:19">
+      <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>10081</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>117.82</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="20">
         <v>3.844848</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="27">
         <v>3.53081</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="27">
         <v>0.008488</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="29">
         <v>0.001</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="16">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="17">
         <v>117.819</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="17">
         <v>3.844881</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="17">
         <v>1.97761</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="17">
         <v>0.042438</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="R7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="S7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:26">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="4" customFormat="1" spans="1:26">
+      <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>10083</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="20">
         <v>167.29</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="20">
         <v>34.000239</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="27">
         <v>42.052723</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="27">
         <v>0.239106</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="17">
         <v>26.670983</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="30">
         <v>34.874812</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="32">
         <v>0.337374</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="14">
         <v>912.636</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="14">
         <v>33.340017</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="20">
         <v>34.880281</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="20">
         <v>0.339675</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:19">
-      <c r="A9" s="11" t="s">
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:19">
+      <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>10085</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>17468.219</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="20">
         <v>0.400001</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="27">
         <v>4.07002</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="27">
         <v>0</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="31">
         <v>0.367582</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="31">
         <v>0.583706</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="31">
         <v>0</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="14">
         <v>21386.476</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="14">
         <v>0.34</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="14">
         <v>3.097986</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="11" t="s">
+      <c r="P9" s="14"/>
+      <c r="Q9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:19">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="4" customFormat="1" spans="1:19">
+      <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>10086</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>21736.098</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="20">
         <v>0.240002</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="27">
         <v>3.920023</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="27">
         <v>0</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="31">
         <v>0.243581</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="31">
         <v>0.230655</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="31">
         <v>0</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="14">
         <v>14878.623</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="14">
         <v>0.259997</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="14">
         <v>6.380026</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="11" t="s">
+      <c r="P10" s="14"/>
+      <c r="Q10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="35" t="s">
+      <c r="R10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:19">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="4" customFormat="1" spans="1:19">
+      <c r="A11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>10087</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>143.488</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="20">
         <v>0.020211</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="27">
         <v>0</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="27">
         <v>0</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="17">
         <v>0.199937</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="30">
         <v>0</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="30">
         <v>0</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="14">
         <v>153.648</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="14">
         <v>0.02</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="14">
         <v>0</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="14">
         <v>0</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="35" t="s">
+      <c r="R11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="S11" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="3:3">
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" s="5" customFormat="1" spans="3:3">
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="3:3">
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" s="5" customFormat="1" spans="3:3">
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" s="5" customFormat="1" spans="3:3">
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" s="5" customFormat="1" spans="3:3">
-      <c r="C17" s="24"/>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="3:3">
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="3:3">
-      <c r="C19" s="24"/>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="3:3">
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="3:3">
-      <c r="C21" s="23"/>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="3:13">
-      <c r="C22" s="23"/>
-      <c r="M22" s="34"/>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="3:13">
-      <c r="C23" s="23"/>
-      <c r="M23" s="34"/>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="3:13">
-      <c r="C24" s="23"/>
-      <c r="M24" s="34"/>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="3:13">
-      <c r="C25" s="22"/>
-      <c r="M25" s="34"/>
+    <row r="12" s="6" customFormat="1" spans="3:3">
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="3:3">
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" s="6" customFormat="1" spans="3:3">
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" s="6" customFormat="1" spans="3:3">
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" s="6" customFormat="1" spans="3:3">
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" s="6" customFormat="1" spans="3:3">
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="3:3">
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="3:3">
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="3:3">
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="3:3">
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="3:13">
+      <c r="C22" s="24"/>
+      <c r="M22" s="35"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="3:13">
+      <c r="C23" s="24"/>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="3:13">
+      <c r="C24" s="24"/>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="3:13">
+      <c r="C25" s="23"/>
+      <c r="M25" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,10 +2166,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="3"/>
@@ -2156,185 +2181,219 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="1" ht="25" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-      <c r="D2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:4">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3">
-        <v>0.9</v>
-      </c>
-      <c r="C3">
-        <v>1.1</v>
-      </c>
-      <c r="D3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:4">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>0.9</v>
-      </c>
-      <c r="C4">
-        <v>1.1</v>
-      </c>
-      <c r="D4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5">
-        <v>0.95</v>
-      </c>
-      <c r="C5">
-        <v>1.05</v>
-      </c>
-      <c r="D5">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
+    </row>
+    <row r="10" customFormat="1" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1">
         <v>0.99</v>
       </c>
-      <c r="C6">
+      <c r="C14" s="3">
         <v>1.01</v>
       </c>
-      <c r="D6">
+      <c r="D14" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:4">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1">
         <v>0.99</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C15" s="3">
         <v>1.01</v>
       </c>
-      <c r="D9">
+      <c r="D15" s="1">
         <v>0.001</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:4">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1">
         <v>0.99</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C16" s="3">
         <v>1.01</v>
       </c>
-      <c r="D10">
+      <c r="D16" s="1">
         <v>0.001</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:4">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>0.99</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="D11">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:4">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:4">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:4">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
